--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Gayot/Eugène_Gayot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Gayot/Eugène_Gayot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Gayot</t>
+          <t>Eugène_Gayot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Gayot, né le 9 juillet 1808  à Aversa (Italie) et mort le 23 mai 1891 à Brie-Comte-Robert[1], est un vétérinaire français. Il fut directeur du haras national du Pin et du haras national de Pompadour, inspecteur général des Haras nationaux, membre du Conseil général des haras et de la Société nationale d’agriculture, conseiller honoraire de la Société des agriculteurs de France et membre honoraire de la Société d’agriculture, commerce, sciences et arts du département de la Marne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Gayot, né le 9 juillet 1808  à Aversa (Italie) et mort le 23 mai 1891 à Brie-Comte-Robert, est un vétérinaire français. Il fut directeur du haras national du Pin et du haras national de Pompadour, inspecteur général des Haras nationaux, membre du Conseil général des haras et de la Société nationale d’agriculture, conseiller honoraire de la Société des agriculteurs de France et membre honoraire de la Société d’agriculture, commerce, sciences et arts du département de la Marne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Gayot</t>
+          <t>Eugène_Gayot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Outre sa collaboration avec Louis Moll dans le grand Dictionnaire d’agriculture pratique, on a de lui des traités sur l’histoire naturelle, l’économie rurale et l’éducation de tous les animaux domestiques.
 Guide du sportsman ou Traité de l'entraînement et des courses de chevaux. Paris, Journal des haras, 1839.
